--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Securekloud Technologies Ltd/Pruned_Excel/Semi_Final/Securekloud Technologies Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Securekloud Technologies Ltd/Pruned_Excel/Semi_Final/Securekloud Technologies Ltd_Semi_Final.xlsx
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="84">
   <si>
     <t>Balance Sheet of Securekloud Technologies(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -57,64 +60,67 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 05</t>
-  </si>
-  <si>
-    <t>Mar 06</t>
-  </si>
-  <si>
-    <t>Mar 07</t>
-  </si>
-  <si>
-    <t>Mar 08</t>
-  </si>
-  <si>
-    <t>Mar 09</t>
-  </si>
-  <si>
-    <t>Mar 10</t>
-  </si>
-  <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Profit &amp; Loss account of Securekloud Technologies(in Rs. Cr.)</t>
@@ -186,9 +192,6 @@
     <t>Quarterly Results of Securekloud Technologies(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -246,49 +249,10 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>09</t>
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>06</t>
@@ -661,13 +625,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,824 +671,887 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>1.56</v>
-      </c>
-      <c r="C2">
-        <v>-0.64</v>
       </c>
       <c r="D2">
         <v>-0.64</v>
       </c>
       <c r="E2">
+        <v>-0.64</v>
+      </c>
+      <c r="F2">
         <v>0.92</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>13.84</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>14.88</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>22.61</v>
-      </c>
-      <c r="I2">
-        <v>1.24</v>
       </c>
       <c r="J2">
         <v>1.24</v>
       </c>
       <c r="K2">
+        <v>1.24</v>
+      </c>
+      <c r="L2">
         <v>1.95</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>20.66</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>22.61</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>1.56</v>
-      </c>
-      <c r="C3">
-        <v>-0.7</v>
       </c>
       <c r="D3">
         <v>-0.7</v>
       </c>
       <c r="E3">
+        <v>-0.7</v>
+      </c>
+      <c r="F3">
         <v>0.86</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>13.66</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>14.7</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>22.37</v>
-      </c>
-      <c r="I3">
-        <v>1.24</v>
       </c>
       <c r="J3">
         <v>1.24</v>
       </c>
       <c r="K3">
+        <v>1.24</v>
+      </c>
+      <c r="L3">
         <v>1.95</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>20.42</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>22.37</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>1.56</v>
-      </c>
-      <c r="C4">
-        <v>3.55</v>
       </c>
       <c r="D4">
         <v>3.55</v>
       </c>
       <c r="E4">
+        <v>3.55</v>
+      </c>
+      <c r="F4">
         <v>5.11</v>
-      </c>
-      <c r="F4">
-        <v>0.35</v>
       </c>
       <c r="G4">
         <v>0.35</v>
       </c>
       <c r="H4">
+        <v>0.35</v>
+      </c>
+      <c r="I4">
         <v>8.640000000000001</v>
-      </c>
-      <c r="I4">
-        <v>1.24</v>
       </c>
       <c r="J4">
         <v>1.24</v>
       </c>
       <c r="K4">
+        <v>1.24</v>
+      </c>
+      <c r="L4">
         <v>1.95</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>6.69</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>8.640000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>1.56</v>
-      </c>
-      <c r="C5">
-        <v>3.63</v>
       </c>
       <c r="D5">
         <v>3.63</v>
       </c>
       <c r="E5">
+        <v>3.63</v>
+      </c>
+      <c r="F5">
         <v>5.19</v>
-      </c>
-      <c r="F5">
-        <v>0.1</v>
       </c>
       <c r="G5">
         <v>0.1</v>
       </c>
       <c r="H5">
+        <v>0.1</v>
+      </c>
+      <c r="I5">
         <v>8.73</v>
-      </c>
-      <c r="I5">
-        <v>0.77</v>
       </c>
       <c r="J5">
         <v>0.77</v>
       </c>
       <c r="K5">
+        <v>0.77</v>
+      </c>
+      <c r="L5">
         <v>1.48</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>7.24</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>8.73</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>1.56</v>
-      </c>
-      <c r="C6">
-        <v>4.79</v>
       </c>
       <c r="D6">
         <v>4.79</v>
       </c>
       <c r="E6">
+        <v>4.79</v>
+      </c>
+      <c r="F6">
         <v>6.35</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>0.08</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>7.83</v>
-      </c>
-      <c r="I6">
-        <v>0.11</v>
       </c>
       <c r="J6">
         <v>0.11</v>
       </c>
       <c r="K6">
+        <v>0.11</v>
+      </c>
+      <c r="L6">
         <v>0.82</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>7.01</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>7.83</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>1.56</v>
-      </c>
-      <c r="C7">
-        <v>6.12</v>
       </c>
       <c r="D7">
         <v>6.12</v>
       </c>
       <c r="E7">
+        <v>6.12</v>
+      </c>
+      <c r="F7">
         <v>7.68</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0.08</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>7.84</v>
-      </c>
-      <c r="I7">
-        <v>0.09</v>
       </c>
       <c r="J7">
         <v>0.09</v>
       </c>
       <c r="K7">
+        <v>0.09</v>
+      </c>
+      <c r="L7">
         <v>1.3</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>6.54</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>7.84</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>5.55</v>
-      </c>
-      <c r="C8">
-        <v>13.64</v>
       </c>
       <c r="D8">
         <v>13.64</v>
       </c>
       <c r="E8">
+        <v>13.64</v>
+      </c>
+      <c r="F8">
         <v>19.2</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.92</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.98</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>29.22</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.02</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>8.960000000000001</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>25.64</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3.57</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>29.22</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>5.55</v>
-      </c>
-      <c r="C9">
-        <v>13.69</v>
       </c>
       <c r="D9">
         <v>13.69</v>
       </c>
       <c r="E9">
+        <v>13.69</v>
+      </c>
+      <c r="F9">
         <v>19.24</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4.73</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>6.51</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>33.28</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.03</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>9.800000000000001</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>26.66</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>6.61</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>33.28</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>10.04</v>
-      </c>
-      <c r="C10">
-        <v>11.94</v>
       </c>
       <c r="D10">
         <v>11.94</v>
       </c>
       <c r="E10">
+        <v>11.94</v>
+      </c>
+      <c r="F10">
         <v>21.99</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.7</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1.83</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>32.73</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.27</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>10.76</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>28.29</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>4.45</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>32.73</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>10.04</v>
-      </c>
-      <c r="C11">
-        <v>12.03</v>
       </c>
       <c r="D11">
         <v>12.03</v>
       </c>
       <c r="E11">
+        <v>12.03</v>
+      </c>
+      <c r="F11">
         <v>22.08</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.57</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>4.24</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>34.91</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.36</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>10.95</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>30.47</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>4.44</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>34.91</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>10.34</v>
-      </c>
-      <c r="C12">
-        <v>24.4</v>
       </c>
       <c r="D12">
         <v>24.4</v>
       </c>
       <c r="E12">
+        <v>24.4</v>
+      </c>
+      <c r="F12">
         <v>34.74</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.66</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1.06</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>47.87</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1.15</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>11.74</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>37.61</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>10.26</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>47.87</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>10.89</v>
-      </c>
-      <c r="C13">
-        <v>46.99</v>
       </c>
       <c r="D13">
         <v>46.99</v>
       </c>
       <c r="E13">
+        <v>46.99</v>
+      </c>
+      <c r="F13">
         <v>57.88</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>5.8</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>10.73</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>74.98</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1.38</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>7.46</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>61.63</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>13.35</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>74.98</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>15.26</v>
-      </c>
-      <c r="C14">
-        <v>61.63</v>
       </c>
       <c r="D14">
         <v>61.63</v>
       </c>
       <c r="E14">
+        <v>61.63</v>
+      </c>
+      <c r="F14">
         <v>76.89</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>7.71</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>19.2</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>116.75</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.99</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>4.77</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>98.06</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>18.69</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>116.75</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>15.26</v>
-      </c>
-      <c r="C15">
-        <v>62.94</v>
       </c>
       <c r="D15">
         <v>62.94</v>
       </c>
       <c r="E15">
+        <v>62.94</v>
+      </c>
+      <c r="F15">
         <v>78.2</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>15.22</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>37.01</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>166.02</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.83</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.9399999999999999</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>124.67</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>41.35</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>166.02</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>15.26</v>
-      </c>
-      <c r="C16">
-        <v>72.75</v>
       </c>
       <c r="D16">
         <v>72.75</v>
       </c>
       <c r="E16">
+        <v>72.75</v>
+      </c>
+      <c r="F16">
         <v>88</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>14.35</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>52.65</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>196.11</v>
-      </c>
-      <c r="I16">
-        <v>0.62</v>
       </c>
       <c r="J16">
         <v>0.62</v>
       </c>
       <c r="K16">
+        <v>0.62</v>
+      </c>
+      <c r="L16">
         <v>121.72</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>74.40000000000001</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>196.11</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>15.26</v>
-      </c>
-      <c r="C17">
-        <v>67.47</v>
       </c>
       <c r="D17">
         <v>67.47</v>
       </c>
       <c r="E17">
+        <v>67.47</v>
+      </c>
+      <c r="F17">
         <v>82.72</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>7.28</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>25.02</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>172.51</v>
-      </c>
-      <c r="I17">
-        <v>0.57</v>
       </c>
       <c r="J17">
         <v>0.57</v>
       </c>
       <c r="K17">
+        <v>0.57</v>
+      </c>
+      <c r="L17">
         <v>121.82</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>50.7</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>172.51</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>15.26</v>
-      </c>
-      <c r="C18">
-        <v>67.36</v>
       </c>
       <c r="D18">
         <v>67.36</v>
       </c>
       <c r="E18">
+        <v>67.36</v>
+      </c>
+      <c r="F18">
         <v>93.87</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>6.77</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>23.12</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>173.97</v>
-      </c>
-      <c r="I18">
-        <v>1.35</v>
       </c>
       <c r="J18">
         <v>1.35</v>
       </c>
       <c r="K18">
+        <v>1.35</v>
+      </c>
+      <c r="L18">
         <v>139.95</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>34.02</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>173.97</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>16.09</v>
-      </c>
-      <c r="C19">
-        <v>77.36</v>
       </c>
       <c r="D19">
         <v>77.36</v>
       </c>
       <c r="E19">
+        <v>77.36</v>
+      </c>
+      <c r="F19">
         <v>100.53</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>7.3</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>22.41</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>173.27</v>
-      </c>
-      <c r="I19">
-        <v>8.17</v>
       </c>
       <c r="J19">
         <v>8.17</v>
       </c>
       <c r="K19">
+        <v>8.17</v>
+      </c>
+      <c r="L19">
         <v>150.1</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>23.18</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>173.27</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>16.71</v>
-      </c>
-      <c r="C20">
-        <v>86.31999999999999</v>
       </c>
       <c r="D20">
         <v>86.31999999999999</v>
       </c>
       <c r="E20">
+        <v>86.31999999999999</v>
+      </c>
+      <c r="F20">
         <v>107.04</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>6.42</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>30.52</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>175.65</v>
-      </c>
-      <c r="I20">
-        <v>6.74</v>
       </c>
       <c r="J20">
         <v>6.74</v>
       </c>
       <c r="K20">
+        <v>6.74</v>
+      </c>
+      <c r="L20">
         <v>148.63</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>27.02</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>175.65</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>16.71</v>
-      </c>
-      <c r="C21">
-        <v>58.63</v>
       </c>
       <c r="D21">
         <v>58.63</v>
       </c>
       <c r="E21">
+        <v>58.63</v>
+      </c>
+      <c r="F21">
         <v>79.34999999999999</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>21.78</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>39.59</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>153.79</v>
-      </c>
-      <c r="I21">
-        <v>4.08</v>
       </c>
       <c r="J21">
         <v>4.08</v>
       </c>
       <c r="K21">
+        <v>4.08</v>
+      </c>
+      <c r="L21">
         <v>117.42</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>36.37</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>153.79</v>
       </c>
     </row>
@@ -1535,87 +1562,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
         <v>0</v>
       </c>
@@ -1641,19 +1671,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0.01</v>
       </c>
       <c r="M2">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="N2">
         <v>-0.01</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1662,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>-0.01</v>
@@ -1671,18 +1701,21 @@
         <v>-0.01</v>
       </c>
       <c r="U2">
-        <v>-0.06</v>
+        <v>-0.01</v>
       </c>
       <c r="V2">
         <v>-0.06</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1709,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0.06</v>
       </c>
       <c r="M3">
-        <v>-0.06</v>
+        <v>0.06</v>
       </c>
       <c r="N3">
         <v>-0.06</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1730,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>-0.06</v>
@@ -1739,18 +1772,21 @@
         <v>-0.06</v>
       </c>
       <c r="U3">
-        <v>-0.38</v>
+        <v>-0.06</v>
       </c>
       <c r="V3">
         <v>-0.38</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>0.05</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
       </c>
       <c r="C4">
         <v>0.05</v>
@@ -1759,14 +1795,14 @@
         <v>0.05</v>
       </c>
       <c r="E4">
+        <v>0.05</v>
+      </c>
+      <c r="F4">
         <v>0.63</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.68</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
         <v>0</v>
       </c>
@@ -1777,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0.02</v>
       </c>
       <c r="M4">
-        <v>0.66</v>
+        <v>0.02</v>
       </c>
       <c r="N4">
         <v>0.66</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1798,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0.66</v>
@@ -1807,18 +1843,21 @@
         <v>0.66</v>
       </c>
       <c r="U4">
-        <v>4.23</v>
+        <v>0.66</v>
       </c>
       <c r="V4">
         <v>4.23</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>0.2</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
       <c r="C5">
         <v>0.2</v>
@@ -1827,37 +1866,37 @@
         <v>0.2</v>
       </c>
       <c r="E5">
+        <v>0.2</v>
+      </c>
+      <c r="F5">
         <v>0.14</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.34</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>0.03</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.26</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>0.03</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.33</v>
-      </c>
-      <c r="M5">
-        <v>0.01</v>
       </c>
       <c r="N5">
         <v>0.01</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1866,27 +1905,30 @@
         <v>0</v>
       </c>
       <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>0.01</v>
-      </c>
-      <c r="S5">
-        <v>0.08</v>
       </c>
       <c r="T5">
         <v>0.08</v>
       </c>
       <c r="U5">
-        <v>0.48</v>
+        <v>0.08</v>
       </c>
       <c r="V5">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1895,46 +1937,46 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1.35</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>0.03</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>0.07000000000000001</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.1</v>
-      </c>
-      <c r="M6">
-        <v>1.25</v>
       </c>
       <c r="N6">
         <v>1.25</v>
       </c>
       <c r="O6">
+        <v>1.25</v>
+      </c>
+      <c r="P6">
         <v>0.08</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>0.08</v>
-      </c>
-      <c r="R6">
-        <v>1.17</v>
       </c>
       <c r="S6">
         <v>1.17</v>
@@ -1943,18 +1985,21 @@
         <v>1.17</v>
       </c>
       <c r="U6">
-        <v>7.47</v>
+        <v>1.17</v>
       </c>
       <c r="V6">
         <v>7.47</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>0.09</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
       </c>
       <c r="C7">
         <v>0.09</v>
@@ -1963,37 +2008,37 @@
         <v>0.09</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>0.09</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>0.01</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0.05</v>
       </c>
       <c r="M7">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="N7">
         <v>0.04</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -2002,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0.04</v>
@@ -2011,18 +2056,21 @@
         <v>0.04</v>
       </c>
       <c r="U7">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="V7">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>1.12</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
       </c>
       <c r="C8">
         <v>1.12</v>
@@ -2031,46 +2079,46 @@
         <v>1.12</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>1.12</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>0.51</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>0.01</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.27</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.79</v>
-      </c>
-      <c r="M8">
-        <v>0.33</v>
       </c>
       <c r="N8">
         <v>0.33</v>
       </c>
       <c r="O8">
+        <v>0.33</v>
+      </c>
+      <c r="P8">
         <v>0.07000000000000001</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-0.08</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>-0.01</v>
-      </c>
-      <c r="R8">
-        <v>0.34</v>
       </c>
       <c r="S8">
         <v>0.34</v>
@@ -2079,18 +2127,21 @@
         <v>0.34</v>
       </c>
       <c r="U8">
-        <v>0.61</v>
+        <v>0.34</v>
       </c>
       <c r="V8">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>2.03</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
       </c>
       <c r="C9">
         <v>2.03</v>
@@ -2099,46 +2150,46 @@
         <v>2.03</v>
       </c>
       <c r="E9">
+        <v>2.03</v>
+      </c>
+      <c r="F9">
         <v>0.03</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2.07</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>1.4</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.03</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.01</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.5600000000000001</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>2.01</v>
-      </c>
-      <c r="M9">
-        <v>0.06</v>
       </c>
       <c r="N9">
         <v>0.06</v>
       </c>
       <c r="O9">
+        <v>0.06</v>
+      </c>
+      <c r="P9">
         <v>0.01</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>0.01</v>
-      </c>
-      <c r="R9">
-        <v>0.05</v>
       </c>
       <c r="S9">
         <v>0.05</v>
@@ -2147,18 +2198,21 @@
         <v>0.05</v>
       </c>
       <c r="U9">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="V9">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>3.04</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
       </c>
       <c r="C10">
         <v>3.04</v>
@@ -2167,46 +2221,46 @@
         <v>3.04</v>
       </c>
       <c r="E10">
+        <v>3.04</v>
+      </c>
+      <c r="F10">
         <v>0.06</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3.1</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>2.32</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.16</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.03</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.52</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>3.03</v>
-      </c>
-      <c r="M10">
-        <v>0.07000000000000001</v>
       </c>
       <c r="N10">
         <v>0.07000000000000001</v>
       </c>
       <c r="O10">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P10">
         <v>0.01</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>0.02</v>
-      </c>
-      <c r="R10">
-        <v>0.05</v>
       </c>
       <c r="S10">
         <v>0.05</v>
@@ -2215,18 +2269,21 @@
         <v>0.05</v>
       </c>
       <c r="U10">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="V10">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>7.22</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
       </c>
       <c r="C11">
         <v>7.22</v>
@@ -2235,46 +2292,46 @@
         <v>7.22</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>7.22</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>7.22</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>3.89</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.39</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1.84</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.58</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>6.7</v>
-      </c>
-      <c r="M11">
-        <v>0.53</v>
       </c>
       <c r="N11">
         <v>0.53</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="P11">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0.43</v>
       </c>
       <c r="R11">
-        <v>0.09</v>
+        <v>0.43</v>
       </c>
       <c r="S11">
         <v>0.09</v>
@@ -2288,13 +2345,16 @@
       <c r="V11">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>12.39</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
       </c>
       <c r="C12">
         <v>12.39</v>
@@ -2303,46 +2363,46 @@
         <v>12.39</v>
       </c>
       <c r="E12">
+        <v>12.39</v>
+      </c>
+      <c r="F12">
         <v>0.27</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>12.66</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>5.74</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.45</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>4.13</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1.28</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>11.59</v>
-      </c>
-      <c r="M12">
-        <v>1.07</v>
       </c>
       <c r="N12">
         <v>1.07</v>
       </c>
       <c r="O12">
+        <v>1.07</v>
+      </c>
+      <c r="P12">
         <v>0.24</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>0.13</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>0.36</v>
-      </c>
-      <c r="R12">
-        <v>0.7</v>
       </c>
       <c r="S12">
         <v>0.7</v>
@@ -2351,18 +2411,21 @@
         <v>0.7</v>
       </c>
       <c r="U12">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="V12">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>20.96</v>
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
       </c>
       <c r="C13">
         <v>20.96</v>
@@ -2371,46 +2434,46 @@
         <v>20.96</v>
       </c>
       <c r="E13">
+        <v>20.96</v>
+      </c>
+      <c r="F13">
         <v>0.21</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>21.17</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>10.99</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.21</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>4.61</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>3.51</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>19.32</v>
-      </c>
-      <c r="M13">
-        <v>1.85</v>
       </c>
       <c r="N13">
         <v>1.85</v>
       </c>
       <c r="O13">
+        <v>1.85</v>
+      </c>
+      <c r="P13">
         <v>0.8100000000000001</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-0.18</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>0.63</v>
-      </c>
-      <c r="R13">
-        <v>1.22</v>
       </c>
       <c r="S13">
         <v>1.22</v>
@@ -2419,18 +2482,21 @@
         <v>1.22</v>
       </c>
       <c r="U13">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="V13">
         <v>1.13</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>37.46</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
       </c>
       <c r="C14">
         <v>37.46</v>
@@ -2439,46 +2505,46 @@
         <v>37.46</v>
       </c>
       <c r="E14">
+        <v>37.46</v>
+      </c>
+      <c r="F14">
         <v>0.08</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>37.54</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>11.85</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.9</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>3.04</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>18.32</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>34.11</v>
-      </c>
-      <c r="M14">
-        <v>3.43</v>
       </c>
       <c r="N14">
         <v>3.43</v>
       </c>
       <c r="O14">
+        <v>3.43</v>
+      </c>
+      <c r="P14">
         <v>1.67</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>0.13</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1.8</v>
-      </c>
-      <c r="R14">
-        <v>1.63</v>
       </c>
       <c r="S14">
         <v>1.63</v>
@@ -2487,18 +2553,21 @@
         <v>1.63</v>
       </c>
       <c r="U14">
-        <v>0.54</v>
+        <v>1.63</v>
       </c>
       <c r="V14">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>50.57</v>
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
       </c>
       <c r="C15">
         <v>50.57</v>
@@ -2507,46 +2576,46 @@
         <v>50.57</v>
       </c>
       <c r="E15">
+        <v>50.57</v>
+      </c>
+      <c r="F15">
         <v>3.6</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>54.16</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>14.53</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>7.55</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.84</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>24.03</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>46.95</v>
-      </c>
-      <c r="M15">
-        <v>7.21</v>
       </c>
       <c r="N15">
         <v>7.21</v>
       </c>
       <c r="O15">
+        <v>7.21</v>
+      </c>
+      <c r="P15">
         <v>2.44</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-0.1</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2.34</v>
-      </c>
-      <c r="R15">
-        <v>4.88</v>
       </c>
       <c r="S15">
         <v>4.88</v>
@@ -2555,18 +2624,21 @@
         <v>4.88</v>
       </c>
       <c r="U15">
-        <v>1.6</v>
+        <v>4.88</v>
       </c>
       <c r="V15">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>56.94</v>
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
       </c>
       <c r="C16">
         <v>56.94</v>
@@ -2575,46 +2647,46 @@
         <v>56.94</v>
       </c>
       <c r="E16">
+        <v>56.94</v>
+      </c>
+      <c r="F16">
         <v>6.87</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>63.81</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>17.33</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>9.699999999999999</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.34</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>22.82</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>50.18</v>
-      </c>
-      <c r="M16">
-        <v>13.63</v>
       </c>
       <c r="N16">
         <v>13.63</v>
       </c>
       <c r="O16">
+        <v>13.63</v>
+      </c>
+      <c r="P16">
         <v>2.2</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>1.7</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>3.9</v>
-      </c>
-      <c r="R16">
-        <v>9.73</v>
       </c>
       <c r="S16">
         <v>9.73</v>
@@ -2623,18 +2695,21 @@
         <v>9.73</v>
       </c>
       <c r="U16">
-        <v>3.19</v>
+        <v>9.73</v>
       </c>
       <c r="V16">
         <v>3.19</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>42.46</v>
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
       </c>
       <c r="C17">
         <v>42.46</v>
@@ -2643,66 +2718,69 @@
         <v>42.46</v>
       </c>
       <c r="E17">
+        <v>42.46</v>
+      </c>
+      <c r="F17">
         <v>3.03</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>45.49</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>18.34</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>9.199999999999999</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.32</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>22.77</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>50.63</v>
-      </c>
-      <c r="M17">
-        <v>-5.14</v>
       </c>
       <c r="N17">
         <v>-5.14</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>-5.14</v>
       </c>
       <c r="P17">
-        <v>-0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>-0.07000000000000001</v>
       </c>
       <c r="R17">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="S17">
         <v>-5.07</v>
-      </c>
-      <c r="S17">
-        <v>-5.25</v>
       </c>
       <c r="T17">
         <v>-5.25</v>
       </c>
       <c r="U17">
-        <v>-1.72</v>
+        <v>-5.25</v>
       </c>
       <c r="V17">
         <v>-1.72</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>-1.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>41.26</v>
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
       </c>
       <c r="C18">
         <v>41.26</v>
@@ -2711,46 +2789,46 @@
         <v>41.26</v>
       </c>
       <c r="E18">
+        <v>41.26</v>
+      </c>
+      <c r="F18">
         <v>-1.09</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>40.18</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>27.09</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>8.35</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.42</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>4.07</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>39.93</v>
-      </c>
-      <c r="M18">
-        <v>0.25</v>
       </c>
       <c r="N18">
         <v>0.25</v>
       </c>
       <c r="O18">
+        <v>0.25</v>
+      </c>
+      <c r="P18">
         <v>0.21</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.08</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.29</v>
-      </c>
-      <c r="R18">
-        <v>-0.04</v>
       </c>
       <c r="S18">
         <v>-0.04</v>
@@ -2759,18 +2837,21 @@
         <v>-0.04</v>
       </c>
       <c r="U18">
-        <v>-0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="V18">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>44.23</v>
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
       <c r="C19">
         <v>44.23</v>
@@ -2779,46 +2860,46 @@
         <v>44.23</v>
       </c>
       <c r="E19">
+        <v>44.23</v>
+      </c>
+      <c r="F19">
         <v>0.83</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>45.06</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>35.43</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>8.06</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1.17</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>5.43</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>50.09</v>
-      </c>
-      <c r="M19">
-        <v>-5.03</v>
       </c>
       <c r="N19">
         <v>-5.03</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>-5.03</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>-0.21</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.5600000000000001</v>
-      </c>
-      <c r="R19">
-        <v>-5.58</v>
       </c>
       <c r="S19">
         <v>-5.58</v>
@@ -2827,18 +2908,21 @@
         <v>-5.58</v>
       </c>
       <c r="U19">
+        <v>-5.58</v>
+      </c>
+      <c r="V19">
         <v>-1.8</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-1.59</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>59.31</v>
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
       <c r="C20">
         <v>59.31</v>
@@ -2847,46 +2931,46 @@
         <v>59.31</v>
       </c>
       <c r="E20">
+        <v>59.31</v>
+      </c>
+      <c r="F20">
         <v>1.77</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>61.08</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>44.08</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>5.27</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>2.76</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>11.69</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>63.8</v>
-      </c>
-      <c r="M20">
-        <v>-2.72</v>
       </c>
       <c r="N20">
         <v>-2.72</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>-2.72</v>
       </c>
       <c r="P20">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0.01</v>
       </c>
       <c r="R20">
-        <v>-2.73</v>
+        <v>0.01</v>
       </c>
       <c r="S20">
         <v>-2.73</v>
@@ -2895,18 +2979,21 @@
         <v>-2.73</v>
       </c>
       <c r="U20">
-        <v>-0.82</v>
+        <v>-2.73</v>
       </c>
       <c r="V20">
         <v>-0.82</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>-0.82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>50.23</v>
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
       </c>
       <c r="C21">
         <v>50.23</v>
@@ -2915,46 +3002,46 @@
         <v>50.23</v>
       </c>
       <c r="E21">
+        <v>50.23</v>
+      </c>
+      <c r="F21">
         <v>0.5</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>50.73</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>36.53</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>5.08</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>2.82</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>5.35</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>49.78</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.96</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>-27.37</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.15</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.29</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.44</v>
-      </c>
-      <c r="R21">
-        <v>-27.81</v>
       </c>
       <c r="S21">
         <v>-27.81</v>
@@ -2963,9 +3050,12 @@
         <v>-27.81</v>
       </c>
       <c r="U21">
+        <v>-27.81</v>
+      </c>
+      <c r="V21">
         <v>-8.32</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-8.32</v>
       </c>
     </row>
@@ -2984,84 +3074,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D2">
         <v>9.039999999999999</v>
@@ -3126,13 +3216,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D3">
         <v>10.37</v>
@@ -3197,13 +3287,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D4">
         <v>3.2</v>
@@ -3268,13 +3358,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D5">
         <v>2.5</v>
@@ -3339,13 +3429,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>77</v>
       </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D6">
         <v>3.19</v>
@@ -3410,13 +3500,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D7">
         <v>3.34</v>
@@ -3481,13 +3571,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D8">
         <v>3.35</v>
@@ -3552,13 +3642,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <v>3.97</v>
@@ -3623,13 +3713,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D10">
         <v>4.12</v>
@@ -3694,13 +3784,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>78</v>
       </c>
-      <c r="B11" t="s">
-        <v>89</v>
-      </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D11">
         <v>6.02</v>
@@ -3765,13 +3855,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D12">
         <v>6.85</v>
@@ -3836,13 +3926,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>79</v>
       </c>
-      <c r="B13" t="s">
-        <v>91</v>
-      </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D13">
         <v>7.07</v>
@@ -3907,13 +3997,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D14">
         <v>8.82</v>
@@ -3978,13 +4068,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D15">
         <v>10.54</v>
@@ -4049,13 +4139,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D16">
         <v>11.03</v>
@@ -4120,13 +4210,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D17">
         <v>11.11</v>
@@ -4191,13 +4281,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
         <v>80</v>
-      </c>
-      <c r="B18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" t="s">
-        <v>92</v>
       </c>
       <c r="D18">
         <v>13.58</v>
@@ -4262,13 +4352,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D19">
         <v>9.6</v>
@@ -4333,13 +4423,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D20">
         <v>16.28</v>
@@ -4404,13 +4494,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D21">
         <v>14.69</v>
@@ -4475,13 +4565,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D22">
         <v>16.4</v>
@@ -4546,13 +4636,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
         <v>81</v>
-      </c>
-      <c r="B23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" t="s">
-        <v>93</v>
       </c>
       <c r="D23">
         <v>12.64</v>
@@ -4617,13 +4707,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
         <v>82</v>
-      </c>
-      <c r="B24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" t="s">
-        <v>94</v>
       </c>
       <c r="D24">
         <v>13.21</v>
@@ -4688,13 +4778,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D25">
         <v>10.03</v>
@@ -4759,13 +4849,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D26">
         <v>11.08</v>
@@ -4830,13 +4920,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D27">
         <v>11.12</v>
@@ -4901,13 +4991,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D28">
         <v>10.22</v>
@@ -4972,13 +5062,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
         <v>83</v>
-      </c>
-      <c r="B29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" t="s">
-        <v>95</v>
       </c>
       <c r="D29">
         <v>14.01</v>
@@ -5043,13 +5133,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D30">
         <v>10.32</v>
@@ -5114,13 +5204,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D31">
         <v>9.369999999999999</v>
@@ -5185,13 +5275,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D32">
         <v>7.57</v>
@@ -5256,13 +5346,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D33">
         <v>10.12</v>
@@ -5327,13 +5417,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D34">
         <v>9.539999999999999</v>
@@ -5398,13 +5488,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D35">
         <v>10.77</v>
@@ -5469,13 +5559,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D36">
         <v>13.81</v>
@@ -5540,13 +5630,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D37">
         <v>14.56</v>
@@ -5611,13 +5701,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D38">
         <v>14.26</v>
@@ -5682,13 +5772,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D39">
         <v>18.86</v>
@@ -5753,13 +5843,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D40">
         <v>11.63</v>
@@ -5824,13 +5914,13 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D41">
         <v>15.62</v>
@@ -5895,13 +5985,13 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D42">
         <v>13.51</v>
@@ -5966,13 +6056,13 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D43">
         <v>10.71</v>
@@ -6037,13 +6127,13 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D44">
         <v>10.39</v>
@@ -6108,13 +6198,13 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D45">
         <v>10.68</v>
@@ -6179,13 +6269,13 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D46">
         <v>13.34</v>
